--- a/medicine/Handicap/Henri-Narcisse_Dransart/Henri-Narcisse_Dransart.xlsx
+++ b/medicine/Handicap/Henri-Narcisse_Dransart/Henri-Narcisse_Dransart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri-Narcisse Dransart, né le 16 août 1847 à Somain (Nord) et mort le 16 juillet 1930[1], est un médecin ophtalmologue, spécialiste de la cure chirurgicale de la cataracte et fondateur  de l'Institut ophtalmique de Somain[2],[3] en 1874.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri-Narcisse Dransart, né le 16 août 1847 à Somain (Nord) et mort le 16 juillet 1930, est un médecin ophtalmologue, spécialiste de la cure chirurgicale de la cataracte et fondateur  de l'Institut ophtalmique de Somain, en 1874.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri-Narcisse Dransart est le fils d'Henri Joseph Dransart et Adélaïde Stéphanie Lesens[1].
-Henri Narcisse fréquente l'école privée de son oncle Louis Hyacinthe Lesens, dès son ouverture à Somain. Après ses études primaires, il fréquente très vite le collège universitaire de Tourcoing. Puis il commence des études à l'école de médecine de Lille dont il est le lauréat deux années consécutives, 1867 et 1868. De Lille, il part pour Paris pour parfaire ses connaissances. Il devient externe puis interne  des Hôpitaux de Paris avant de venir chef de clinique ophtamologique. Il s'est spécialisé dans la médecine oculaire et va désormais se documenter de plus en plus dans cette discipline. Il commence à écrire thèses et traités dans cette branche bien particulière, dès 1872, et ne cessera de publier un grand nombre de travaux soit en volumes soit dans les recueils de sociétés savantes. Il termine ses études en 1878[4].
-Conseiller général du Nord du canton de Marchiennes à partir du 31 juillet 1898[4] durant 12 ans, conseiller municipal pendant 34 ans [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri-Narcisse Dransart est le fils d'Henri Joseph Dransart et Adélaïde Stéphanie Lesens.
+Henri Narcisse fréquente l'école privée de son oncle Louis Hyacinthe Lesens, dès son ouverture à Somain. Après ses études primaires, il fréquente très vite le collège universitaire de Tourcoing. Puis il commence des études à l'école de médecine de Lille dont il est le lauréat deux années consécutives, 1867 et 1868. De Lille, il part pour Paris pour parfaire ses connaissances. Il devient externe puis interne  des Hôpitaux de Paris avant de venir chef de clinique ophtamologique. Il s'est spécialisé dans la médecine oculaire et va désormais se documenter de plus en plus dans cette discipline. Il commence à écrire thèses et traités dans cette branche bien particulière, dès 1872, et ne cessera de publier un grand nombre de travaux soit en volumes soit dans les recueils de sociétés savantes. Il termine ses études en 1878.
+Conseiller général du Nord du canton de Marchiennes à partir du 31 juillet 1898 durant 12 ans, conseiller municipal pendant 34 ans .
 Il meurt le 16 juillet 1930 à l'âge de 82 ans. Il est enterré au cimetière de Somain, près de l'entrée principale.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Condamnations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour avoir caché des militaires français, le Docteur Dransart est condamné, sur dénonciation, à neuf mois de prison du 20 août 1914, mais n'est libéré que le 10 novembre 1915 et à 3000 marks pour automobiles cachées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour avoir caché des militaires français, le Docteur Dransart est condamné, sur dénonciation, à neuf mois de prison du 20 août 1914, mais n'est libéré que le 10 novembre 1915 et à 3000 marks pour automobiles cachées.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1871: médaille de la Croix-Rouge
-1921: Chevalier de la légion d'honneur[5] (décret du 7 mai 1921).</t>
+1921: Chevalier de la légion d'honneur (décret du 7 mai 1921).</t>
         </is>
       </c>
     </row>
@@ -607,7 +625,9 @@
           <t>L'Institut ophtalmique de Somain</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			L' institut ophtalmique
@@ -645,6 +665,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
